--- a/Excel/TABLAS.xlsx
+++ b/Excel/TABLAS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Estructura-de-datos-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS ZEPHYRUS M16\Documents\Estructura-de-datos-2\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B693D342-FD62-473E-9E91-D6B35B10838E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF0D7BB-76F9-4AC1-88C4-BC417B6E1F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23532" yWindow="708" windowWidth="26016" windowHeight="14556" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="124">
   <si>
     <t>Productos</t>
   </si>
@@ -58,9 +58,6 @@
     <t>ID_Proveedor</t>
   </si>
   <si>
-    <t>Fecha_Registro</t>
-  </si>
-  <si>
     <t>TIPO</t>
   </si>
   <si>
@@ -217,9 +214,6 @@
     <t>Relación con el proveedor del producto.</t>
   </si>
   <si>
-    <t>Fecha en que el producto fue registrado.</t>
-  </si>
-  <si>
     <t>Identificador único para cada categoría.</t>
   </si>
   <si>
@@ -353,6 +347,66 @@
   </si>
   <si>
     <t>Valor booleano o de texto (por ejemplo, "Lectura", "Escritura", "Completo") que especifica el nivel de acceso.</t>
+  </si>
+  <si>
+    <t>Peso(g)</t>
+  </si>
+  <si>
+    <t>ancho</t>
+  </si>
+  <si>
+    <t>alto</t>
+  </si>
+  <si>
+    <t>grosor</t>
+  </si>
+  <si>
+    <t>id_clasificacion</t>
+  </si>
+  <si>
+    <t>id_categorias</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>Fotografia del producto</t>
+  </si>
+  <si>
+    <t>peso del producto</t>
+  </si>
+  <si>
+    <t>ancho del producto</t>
+  </si>
+  <si>
+    <t>alto del producto</t>
+  </si>
+  <si>
+    <t>grosor del producto</t>
+  </si>
+  <si>
+    <t>Relación con la clasificacion</t>
+  </si>
+  <si>
+    <t>Relacion con las categorias</t>
+  </si>
+  <si>
+    <t>Clasificacion</t>
+  </si>
+  <si>
+    <t>ID_Clasificacion</t>
+  </si>
+  <si>
+    <t>Nombre_clasificacion</t>
+  </si>
+  <si>
+    <t>Identificador único para cada clasificacion.</t>
+  </si>
+  <si>
+    <t>Nombre de la clasificacion especifica</t>
   </si>
 </sst>
 </file>
@@ -535,9 +589,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -545,9 +596,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -565,6 +619,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>375323</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50427</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>422029</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>2199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C35265-439E-386F-6BDB-0C301294720A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8606044" y="235324"/>
+          <a:ext cx="7521029" cy="5865422"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -830,897 +933,1015 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:J77"/>
+  <dimension ref="C3:J93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="27.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="46.85546875" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="46.88671875" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="23"/>
-    </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="22"/>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C4" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F4" s="20"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C5" s="18" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" s="20"/>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C6" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C7" s="18" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F7" s="20"/>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C8" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F8" s="20"/>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C9" s="18" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C10" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C13" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C14" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C15" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C16" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" s="20"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C19" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="22"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C20" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="20"/>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C21" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="20"/>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="22"/>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C29" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C30" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="20"/>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C31" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="20"/>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="22"/>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C34" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="20"/>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C35" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" s="20"/>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C36" s="4"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C38" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="20"/>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="18" t="s">
+      <c r="D38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="22" t="s">
+      <c r="E38" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="23"/>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="20"/>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="20"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="23"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="20" t="s">
+      <c r="F38" s="22"/>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C39" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="20"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="20" t="s">
+      <c r="F39" s="20"/>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C40" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="20"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="4"/>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="23"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C23" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="20" t="s">
+      <c r="F40" s="20"/>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C41" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="20"/>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C24" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" s="20"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C25" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="20"/>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C26" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="F26" s="20"/>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C27" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="F27" s="20"/>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C29" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C30" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C31" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C32" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C33" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C34" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-    </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C36" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="23"/>
-    </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C37" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="F37" s="20"/>
-    </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C38" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F38" s="20"/>
-    </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C39" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="F39" s="20"/>
-    </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C40" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="F40" s="20"/>
-    </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C41" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="20" t="s">
-        <v>79</v>
-      </c>
       <c r="F41" s="20"/>
     </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C42" s="18" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F42" s="20"/>
     </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C43" s="18" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="F43" s="20"/>
     </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C45" s="15" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F45" s="23"/>
-    </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C46" s="18" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="F46" s="20"/>
-    </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C47" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="F47" s="20"/>
-    </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C48" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F48" s="20"/>
-    </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C49" s="18" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F49" s="20"/>
-    </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C50" s="18" t="s">
         <v>26</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E50" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="22"/>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C53" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F53" s="20"/>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C54" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F54" s="20"/>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C55" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F55" s="20"/>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C56" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F56" s="20"/>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C57" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F57" s="20"/>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C58" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F58" s="20"/>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C59" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F59" s="20"/>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C61" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61" s="22"/>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C62" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F62" s="20"/>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C63" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F63" s="20"/>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C64" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F64" s="20"/>
+    </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C65" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F65" s="20"/>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C66" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F66" s="20"/>
+    </row>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C67" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F67" s="20"/>
+    </row>
+    <row r="68" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C68" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="F50" s="20"/>
-    </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C51" s="18" t="s">
+      <c r="F68" s="20"/>
+    </row>
+    <row r="69" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C69" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="F69" s="20"/>
+    </row>
+    <row r="71" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C71" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F71" s="22"/>
+    </row>
+    <row r="72" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C72" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="F51" s="20"/>
-    </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C52" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E52" s="20" t="s">
+      <c r="D72" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="F52" s="20"/>
-    </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C53" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="20" t="s">
+      <c r="F72" s="20"/>
+    </row>
+    <row r="73" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C73" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="F53" s="20"/>
-    </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C55" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="22" t="s">
+      <c r="F73" s="20"/>
+    </row>
+    <row r="74" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C74" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F74" s="20"/>
+    </row>
+    <row r="75" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C75" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F75" s="20"/>
+      <c r="G75" s="17"/>
+    </row>
+    <row r="76" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C76" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E76" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F76" s="20"/>
+    </row>
+    <row r="77" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C77" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F77" s="20"/>
+    </row>
+    <row r="78" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C78" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E78" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F78" s="20"/>
+    </row>
+    <row r="80" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C80" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F55" s="23"/>
-    </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C56" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="F56" s="20"/>
-    </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C57" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="F57" s="20"/>
-    </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C58" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="F58" s="20"/>
-    </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C59" s="12" t="s">
+      <c r="F80" s="22"/>
+    </row>
+    <row r="81" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C81" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D59" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="F59" s="20"/>
-      <c r="G59" s="17"/>
-    </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C60" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E60" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="F60" s="20"/>
-    </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C61" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="20" t="s">
+      <c r="D81" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="F61" s="20"/>
-    </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C62" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E62" s="20" t="s">
+      <c r="F81" s="20"/>
+    </row>
+    <row r="82" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C82" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="F62" s="20"/>
-    </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C64" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" s="22" t="s">
+      <c r="F82" s="20"/>
+    </row>
+    <row r="83" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C83" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F64" s="23"/>
-    </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" s="20" t="s">
+      <c r="D83" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="F65" s="20"/>
-    </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="16" t="s">
+      <c r="F83" s="20"/>
+    </row>
+    <row r="85" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C85" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D66" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" s="20" t="s">
+      <c r="D85" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+    </row>
+    <row r="86" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C86" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="F66" s="20"/>
-    </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="13" t="s">
+      <c r="F86" s="20"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="20"/>
+    </row>
+    <row r="87" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C87" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F87" s="20"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="20"/>
+    </row>
+    <row r="88" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C88" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D67" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="F67" s="20"/>
-    </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="1" t="s">
+      <c r="D88" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="F88" s="20"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="20"/>
+    </row>
+    <row r="90" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C90" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F90" s="25"/>
+      <c r="G90" s="25"/>
+      <c r="H90" s="25"/>
+      <c r="I90" s="25"/>
+      <c r="J90" s="25"/>
+    </row>
+    <row r="91" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C91" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E91" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F91" s="20"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="20"/>
+    </row>
+    <row r="92" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C92" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E69" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="F69" s="21"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="21"/>
-    </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="20"/>
-    </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="20"/>
-    </row>
-    <row r="72" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C72" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E72" s="20" t="s">
+      <c r="D92" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E92" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="20"/>
-    </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="15" t="s">
+      <c r="F92" s="20"/>
+      <c r="G92" s="20"/>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="20"/>
+    </row>
+    <row r="93" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C93" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D74" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="F74" s="21"/>
-      <c r="G74" s="21"/>
-      <c r="H74" s="21"/>
-      <c r="I74" s="21"/>
-      <c r="J74" s="21"/>
-    </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E75" s="20" t="s">
+      <c r="D93" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="20"/>
-      <c r="J75" s="20"/>
-    </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E76" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="20"/>
-      <c r="J76" s="20"/>
-    </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E77" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="F77" s="20"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="20"/>
-      <c r="I77" s="20"/>
-      <c r="J77" s="20"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="20"/>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="64">
+  <mergeCells count="73">
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E92:J92"/>
+    <mergeCell ref="E93:J93"/>
+    <mergeCell ref="E85:H85"/>
+    <mergeCell ref="E86:H86"/>
+    <mergeCell ref="E87:H87"/>
+    <mergeCell ref="E88:H88"/>
+    <mergeCell ref="E90:J90"/>
+    <mergeCell ref="E91:J91"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E76:J76"/>
-    <mergeCell ref="E77:J77"/>
-    <mergeCell ref="E69:H69"/>
-    <mergeCell ref="E70:H70"/>
-    <mergeCell ref="E71:H71"/>
-    <mergeCell ref="E72:H72"/>
-    <mergeCell ref="E74:J74"/>
-    <mergeCell ref="E75:J75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>